--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/35_Gümüşhane_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/35_Gümüşhane_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51009D76-D1A6-4A31-BEAF-4728925E9968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB15C3B-6DEE-40CB-B9E0-8B1CD8001D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{7D653AF6-6464-4802-B684-D935742BE9BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{2C04AC2E-140F-4407-9A2B-4F5F162EF2E8}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9A638F99-978C-42D5-8E73-6798ECC4A572}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D04FC4EA-3633-4D14-AC27-BE1D338DAA43}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{2356D4A4-E80E-4E76-B6BD-411E47F6D2BF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{88203CDA-F126-48C3-AC19-A28244A12CF6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CD677644-FAB3-4CE3-ACB4-1A1A41DCCBFC}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{8AC2B96D-7A8A-4044-AE43-7CE5D4EDF83E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{4DC9C3ED-3C6D-4F55-A6C6-0F9F56C1151C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AA829A30-361C-4036-B6D0-EFBF8A07CBF5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C392DC72-C64C-4AB4-8EDC-958C78A6EC1A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{0CE83CAF-A8F3-431C-9C6A-1907AE37AB28}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4520F737-4323-40F9-A199-896E18995CB7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{742C0FB9-EAEA-4D52-A088-7EDD249D617F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9A1D3BD6-F7F0-471B-9971-D4CC97AAF43E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{27B21D66-6320-4B60-98F3-3A3EE52EE87D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A8A350-4A12-49E3-B60D-DFD469250703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C3A939-0AA5-4124-913B-C46EC430F1F5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2404,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C07A031-463A-4806-A469-3205E252CEC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B11E9B4-35EF-44AD-95B7-EBB754C45F04}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3647,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27626E98-4D23-47B1-8600-C9A4C1F0362C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37901D6E-930B-424A-9EFE-F53ADB99303F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4882,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0AE5A8-7E37-4B6D-BDA0-050D560CDFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBF5B91-163E-451B-91F2-88170F8E0E2D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6125,7 +6125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FCCFFF-03FA-4613-B79F-C0AF15894224}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30461195-CC92-465B-B270-9816D0883C93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7352,7 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF44F38-9DC9-4767-96F5-035E59AE0985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5324FE9-3C1F-48BF-9957-49B0700A12AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
